--- a/Input/Machine_Table_per_tool_AI.xlsx
+++ b/Input/Machine_Table_per_tool_AI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.distefano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.distefano\Desktop\Nastrini-e-Coriandoli\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A835EA4E-DC42-423E-94A7-F89B4144EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18EB80-2BDB-4824-B1D9-832EBD1A2937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22140" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{01506C15-45BD-4F72-B9FA-F9690C252C55}"/>
+    <workbookView xWindow="43080" yWindow="-6720" windowWidth="29040" windowHeight="15720" xr2:uid="{01506C15-45BD-4F72-B9FA-F9690C252C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4963" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4962" uniqueCount="1322">
   <si>
     <t>ITEM_ID_GLOBAL</t>
   </si>
@@ -4011,7 +4011,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4023,6 +4023,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4069,7 +4077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4083,6 +4091,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4418,27 +4427,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8699A6A8-F28A-4758-B52D-F7B4CDBD35D9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K634"/>
+  <dimension ref="A1:K636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A334" sqref="A334"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D636" sqref="D636"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1328125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
@@ -4498,7 +4507,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -4523,7 +4532,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>132</v>
       </c>
@@ -4548,7 +4557,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>134</v>
       </c>
@@ -4573,7 +4582,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>136</v>
       </c>
@@ -4598,7 +4607,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -4623,7 +4632,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -4648,7 +4657,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
@@ -4673,7 +4682,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>144</v>
       </c>
@@ -4698,7 +4707,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
@@ -4723,7 +4732,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>148</v>
       </c>
@@ -4748,7 +4757,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>150</v>
       </c>
@@ -4773,7 +4782,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>152</v>
       </c>
@@ -4798,7 +4807,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
@@ -4823,7 +4832,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>156</v>
       </c>
@@ -4848,7 +4857,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>158</v>
       </c>
@@ -4873,7 +4882,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>160</v>
       </c>
@@ -4898,7 +4907,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>162</v>
       </c>
@@ -4923,7 +4932,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>164</v>
       </c>
@@ -4948,7 +4957,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>166</v>
       </c>
@@ -4973,7 +4982,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>168</v>
       </c>
@@ -4998,7 +5007,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -5023,7 +5032,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>173</v>
       </c>
@@ -5048,7 +5057,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>176</v>
       </c>
@@ -5073,7 +5082,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
@@ -5098,7 +5107,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>182</v>
       </c>
@@ -5123,7 +5132,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>185</v>
       </c>
@@ -5148,7 +5157,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>188</v>
       </c>
@@ -5173,7 +5182,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>191</v>
       </c>
@@ -5198,7 +5207,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>194</v>
       </c>
@@ -5223,7 +5232,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>197</v>
       </c>
@@ -5248,7 +5257,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>200</v>
       </c>
@@ -5273,7 +5282,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>203</v>
       </c>
@@ -5298,7 +5307,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>206</v>
       </c>
@@ -5323,7 +5332,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>209</v>
       </c>
@@ -5348,7 +5357,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>212</v>
       </c>
@@ -5373,7 +5382,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -5398,7 +5407,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5431,7 +5440,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -5456,7 +5465,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -5481,7 +5490,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -5506,7 +5515,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
@@ -5531,7 +5540,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
@@ -5556,7 +5565,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
@@ -5581,7 +5590,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -5606,7 +5615,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -5631,7 +5640,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>85</v>
       </c>
@@ -5656,7 +5665,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -5681,7 +5690,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>91</v>
       </c>
@@ -5706,7 +5715,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -5731,7 +5740,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
@@ -5756,7 +5765,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -5781,7 +5790,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>103</v>
       </c>
@@ -5806,7 +5815,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -5831,7 +5840,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
@@ -5856,7 +5865,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -5881,7 +5890,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
@@ -5906,7 +5915,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
@@ -5931,7 +5940,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
@@ -5956,7 +5965,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>218</v>
       </c>
@@ -5981,7 +5990,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>221</v>
       </c>
@@ -6006,7 +6015,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>223</v>
       </c>
@@ -6031,7 +6040,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>225</v>
       </c>
@@ -6056,7 +6065,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>227</v>
       </c>
@@ -6081,7 +6090,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>229</v>
       </c>
@@ -6106,7 +6115,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>231</v>
       </c>
@@ -6131,7 +6140,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>233</v>
       </c>
@@ -6156,7 +6165,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>235</v>
       </c>
@@ -6181,7 +6190,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>237</v>
       </c>
@@ -6206,7 +6215,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>239</v>
       </c>
@@ -6231,7 +6240,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>241</v>
       </c>
@@ -6256,7 +6265,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>243</v>
       </c>
@@ -6281,7 +6290,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>245</v>
       </c>
@@ -6306,7 +6315,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>247</v>
       </c>
@@ -6331,7 +6340,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>249</v>
       </c>
@@ -6356,7 +6365,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>251</v>
       </c>
@@ -6381,7 +6390,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>253</v>
       </c>
@@ -6406,7 +6415,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>255</v>
       </c>
@@ -6431,7 +6440,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
@@ -6456,7 +6465,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>259</v>
       </c>
@@ -6481,7 +6490,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>261</v>
       </c>
@@ -6506,7 +6515,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>263</v>
       </c>
@@ -6531,7 +6540,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>265</v>
       </c>
@@ -6556,7 +6565,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>267</v>
       </c>
@@ -6581,7 +6590,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>269</v>
       </c>
@@ -6606,7 +6615,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>271</v>
       </c>
@@ -6631,7 +6640,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>273</v>
       </c>
@@ -6656,7 +6665,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -6681,7 +6690,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>277</v>
       </c>
@@ -6706,7 +6715,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>279</v>
       </c>
@@ -6731,7 +6740,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>281</v>
       </c>
@@ -6756,7 +6765,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>283</v>
       </c>
@@ -6781,7 +6790,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>285</v>
       </c>
@@ -6806,7 +6815,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -6831,7 +6840,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
@@ -6856,7 +6865,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>292</v>
       </c>
@@ -6881,7 +6890,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
@@ -6906,7 +6915,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>298</v>
       </c>
@@ -6931,7 +6940,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
@@ -6956,7 +6965,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>304</v>
       </c>
@@ -6981,7 +6990,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>307</v>
       </c>
@@ -7006,7 +7015,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>310</v>
       </c>
@@ -7031,7 +7040,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>313</v>
       </c>
@@ -7056,7 +7065,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>316</v>
       </c>
@@ -7081,7 +7090,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>318</v>
       </c>
@@ -7106,7 +7115,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>320</v>
       </c>
@@ -7131,7 +7140,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>322</v>
       </c>
@@ -7156,7 +7165,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>324</v>
       </c>
@@ -7181,7 +7190,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>326</v>
       </c>
@@ -7206,7 +7215,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>328</v>
       </c>
@@ -7231,7 +7240,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>330</v>
       </c>
@@ -7256,7 +7265,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>332</v>
       </c>
@@ -7281,7 +7290,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>334</v>
       </c>
@@ -7306,7 +7315,7 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>336</v>
       </c>
@@ -7331,7 +7340,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>338</v>
       </c>
@@ -7356,7 +7365,7 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>340</v>
       </c>
@@ -7381,7 +7390,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>342</v>
       </c>
@@ -7406,7 +7415,7 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>344</v>
       </c>
@@ -7431,7 +7440,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>346</v>
       </c>
@@ -7456,7 +7465,7 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>348</v>
       </c>
@@ -7481,7 +7490,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>350</v>
       </c>
@@ -7506,7 +7515,7 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>352</v>
       </c>
@@ -7531,7 +7540,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>354</v>
       </c>
@@ -7556,7 +7565,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>356</v>
       </c>
@@ -7581,7 +7590,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>358</v>
       </c>
@@ -7606,7 +7615,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>360</v>
       </c>
@@ -7631,7 +7640,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>362</v>
       </c>
@@ -7656,7 +7665,7 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>364</v>
       </c>
@@ -7681,7 +7690,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>366</v>
       </c>
@@ -7706,7 +7715,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>368</v>
       </c>
@@ -7731,7 +7740,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>370</v>
       </c>
@@ -7756,7 +7765,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>373</v>
       </c>
@@ -7781,7 +7790,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>375</v>
       </c>
@@ -7806,7 +7815,7 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>377</v>
       </c>
@@ -7831,7 +7840,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>379</v>
       </c>
@@ -7856,7 +7865,7 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>381</v>
       </c>
@@ -7881,7 +7890,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>383</v>
       </c>
@@ -7906,7 +7915,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>385</v>
       </c>
@@ -7931,7 +7940,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>387</v>
       </c>
@@ -7956,7 +7965,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>389</v>
       </c>
@@ -7981,7 +7990,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>391</v>
       </c>
@@ -8006,7 +8015,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>393</v>
       </c>
@@ -8031,7 +8040,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>395</v>
       </c>
@@ -8056,7 +8065,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>397</v>
       </c>
@@ -8081,7 +8090,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>399</v>
       </c>
@@ -8106,7 +8115,7 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>401</v>
       </c>
@@ -8131,7 +8140,7 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>403</v>
       </c>
@@ -8156,7 +8165,7 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>405</v>
       </c>
@@ -8181,7 +8190,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>407</v>
       </c>
@@ -8206,7 +8215,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>409</v>
       </c>
@@ -8231,7 +8240,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>411</v>
       </c>
@@ -8256,7 +8265,7 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>413</v>
       </c>
@@ -8281,7 +8290,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>415</v>
       </c>
@@ -8306,7 +8315,7 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>417</v>
       </c>
@@ -8331,7 +8340,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>419</v>
       </c>
@@ -8356,7 +8365,7 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>421</v>
       </c>
@@ -8391,7 +8400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>425</v>
       </c>
@@ -8426,7 +8435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>427</v>
       </c>
@@ -8461,7 +8470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>429</v>
       </c>
@@ -8496,7 +8505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>431</v>
       </c>
@@ -8531,7 +8540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>433</v>
       </c>
@@ -8566,7 +8575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>435</v>
       </c>
@@ -8601,7 +8610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>437</v>
       </c>
@@ -8634,7 +8643,7 @@
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>439</v>
       </c>
@@ -8669,7 +8678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>441</v>
       </c>
@@ -8704,7 +8713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>443</v>
       </c>
@@ -8739,7 +8748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>445</v>
       </c>
@@ -8770,7 +8779,7 @@
       </c>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>447</v>
       </c>
@@ -8801,7 +8810,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>449</v>
       </c>
@@ -8836,7 +8845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>452</v>
       </c>
@@ -8871,7 +8880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>454</v>
       </c>
@@ -8906,7 +8915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>456</v>
       </c>
@@ -8941,7 +8950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>458</v>
       </c>
@@ -8976,7 +8985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>460</v>
       </c>
@@ -9011,7 +9020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>462</v>
       </c>
@@ -9046,7 +9055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>464</v>
       </c>
@@ -9081,7 +9090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>466</v>
       </c>
@@ -9116,7 +9125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>468</v>
       </c>
@@ -9151,7 +9160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>470</v>
       </c>
@@ -9186,7 +9195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>472</v>
       </c>
@@ -9221,7 +9230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>474</v>
       </c>
@@ -9252,7 +9261,7 @@
       </c>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>477</v>
       </c>
@@ -9277,7 +9286,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>477</v>
       </c>
@@ -9312,7 +9321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>480</v>
       </c>
@@ -9337,7 +9346,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>480</v>
       </c>
@@ -9372,7 +9381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>482</v>
       </c>
@@ -9403,7 +9412,7 @@
       </c>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>484</v>
       </c>
@@ -9428,7 +9437,7 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>484</v>
       </c>
@@ -9463,7 +9472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>486</v>
       </c>
@@ -9488,7 +9497,7 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>486</v>
       </c>
@@ -9523,7 +9532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>488</v>
       </c>
@@ -9554,7 +9563,7 @@
       </c>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>490</v>
       </c>
@@ -9579,7 +9588,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>490</v>
       </c>
@@ -9614,7 +9623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>492</v>
       </c>
@@ -9639,7 +9648,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>492</v>
       </c>
@@ -9674,7 +9683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>494</v>
       </c>
@@ -9705,7 +9714,7 @@
       </c>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>496</v>
       </c>
@@ -9730,7 +9739,7 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>496</v>
       </c>
@@ -9765,7 +9774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>499</v>
       </c>
@@ -9790,7 +9799,7 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>499</v>
       </c>
@@ -9825,7 +9834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>501</v>
       </c>
@@ -9856,7 +9865,7 @@
       </c>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>503</v>
       </c>
@@ -9881,7 +9890,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>503</v>
       </c>
@@ -9916,7 +9925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>505</v>
       </c>
@@ -9941,7 +9950,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>505</v>
       </c>
@@ -9976,7 +9985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>507</v>
       </c>
@@ -10007,7 +10016,7 @@
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>509</v>
       </c>
@@ -10032,7 +10041,7 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>509</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>511</v>
       </c>
@@ -10092,7 +10101,7 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>511</v>
       </c>
@@ -10127,7 +10136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>513</v>
       </c>
@@ -10162,7 +10171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>516</v>
       </c>
@@ -10197,7 +10206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>518</v>
       </c>
@@ -10232,7 +10241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>520</v>
       </c>
@@ -10267,7 +10276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>522</v>
       </c>
@@ -10302,7 +10311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>524</v>
       </c>
@@ -10337,7 +10346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>526</v>
       </c>
@@ -10372,7 +10381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>528</v>
       </c>
@@ -10405,7 +10414,7 @@
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
         <v>530</v>
       </c>
@@ -10440,7 +10449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>532</v>
       </c>
@@ -10475,7 +10484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
         <v>534</v>
       </c>
@@ -10510,7 +10519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>536</v>
       </c>
@@ -10541,7 +10550,7 @@
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>538</v>
       </c>
@@ -10572,7 +10581,7 @@
       </c>
       <c r="K224" s="3"/>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>540</v>
       </c>
@@ -10607,7 +10616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>543</v>
       </c>
@@ -10642,7 +10651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>545</v>
       </c>
@@ -10677,7 +10686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>548</v>
       </c>
@@ -10712,7 +10721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>550</v>
       </c>
@@ -10747,7 +10756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>552</v>
       </c>
@@ -10782,7 +10791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>554</v>
       </c>
@@ -10817,7 +10826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>558</v>
       </c>
@@ -10852,7 +10861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>560</v>
       </c>
@@ -10887,7 +10896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>562</v>
       </c>
@@ -10922,7 +10931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>565</v>
       </c>
@@ -10957,7 +10966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>567</v>
       </c>
@@ -10992,7 +11001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>570</v>
       </c>
@@ -11027,7 +11036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>572</v>
       </c>
@@ -11062,7 +11071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>574</v>
       </c>
@@ -11097,7 +11106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>578</v>
       </c>
@@ -11132,7 +11141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>581</v>
       </c>
@@ -11167,7 +11176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
         <v>584</v>
       </c>
@@ -11192,7 +11201,7 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>584</v>
       </c>
@@ -11227,7 +11236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
         <v>587</v>
       </c>
@@ -11258,7 +11267,7 @@
       </c>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>589</v>
       </c>
@@ -11283,7 +11292,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
         <v>589</v>
       </c>
@@ -11318,7 +11327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>591</v>
       </c>
@@ -11349,7 +11358,7 @@
       </c>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>593</v>
       </c>
@@ -11374,7 +11383,7 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>593</v>
       </c>
@@ -11409,7 +11418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
         <v>595</v>
       </c>
@@ -11434,7 +11443,7 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>595</v>
       </c>
@@ -11469,7 +11478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>597</v>
       </c>
@@ -11500,7 +11509,7 @@
       </c>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>599</v>
       </c>
@@ -11525,7 +11534,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>599</v>
       </c>
@@ -11560,7 +11569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>601</v>
       </c>
@@ -11585,7 +11594,7 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
         <v>601</v>
       </c>
@@ -11620,7 +11629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>603</v>
       </c>
@@ -11651,7 +11660,7 @@
       </c>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>605</v>
       </c>
@@ -11676,7 +11685,7 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>605</v>
       </c>
@@ -11711,7 +11720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>607</v>
       </c>
@@ -11736,7 +11745,7 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>607</v>
       </c>
@@ -11771,7 +11780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
         <v>609</v>
       </c>
@@ -11802,7 +11811,7 @@
       </c>
       <c r="K262" s="3"/>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>611</v>
       </c>
@@ -11827,7 +11836,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
         <v>611</v>
       </c>
@@ -11862,7 +11871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>613</v>
       </c>
@@ -11887,7 +11896,7 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
         <v>613</v>
       </c>
@@ -11922,7 +11931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>615</v>
       </c>
@@ -11953,7 +11962,7 @@
       </c>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>617</v>
       </c>
@@ -11978,7 +11987,7 @@
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>617</v>
       </c>
@@ -12013,7 +12022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
         <v>619</v>
       </c>
@@ -12038,7 +12047,7 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>619</v>
       </c>
@@ -12073,7 +12082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
         <v>621</v>
       </c>
@@ -12104,7 +12113,7 @@
       </c>
       <c r="K272" s="3"/>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>623</v>
       </c>
@@ -12129,7 +12138,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>623</v>
       </c>
@@ -12164,7 +12173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>625</v>
       </c>
@@ -12189,7 +12198,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>625</v>
       </c>
@@ -12224,7 +12233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>627</v>
       </c>
@@ -12259,7 +12268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>630</v>
       </c>
@@ -12294,7 +12303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>632</v>
       </c>
@@ -12329,7 +12338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
         <v>634</v>
       </c>
@@ -12364,7 +12373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>636</v>
       </c>
@@ -12399,7 +12408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
         <v>638</v>
       </c>
@@ -12434,7 +12443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>640</v>
       </c>
@@ -12467,7 +12476,7 @@
       </c>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
         <v>642</v>
       </c>
@@ -12502,7 +12511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>644</v>
       </c>
@@ -12537,7 +12546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="3" t="s">
         <v>646</v>
       </c>
@@ -12572,7 +12581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>648</v>
       </c>
@@ -12603,7 +12612,7 @@
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="3" t="s">
         <v>650</v>
       </c>
@@ -12634,7 +12643,7 @@
       </c>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>652</v>
       </c>
@@ -12669,7 +12678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>654</v>
       </c>
@@ -12704,7 +12713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>656</v>
       </c>
@@ -12739,7 +12748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
         <v>658</v>
       </c>
@@ -12774,7 +12783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>660</v>
       </c>
@@ -12805,7 +12814,7 @@
       </c>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="3" t="s">
         <v>662</v>
       </c>
@@ -12830,7 +12839,7 @@
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>662</v>
       </c>
@@ -12865,7 +12874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
         <v>665</v>
       </c>
@@ -12890,7 +12899,7 @@
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>665</v>
       </c>
@@ -12925,7 +12934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>667</v>
       </c>
@@ -12956,7 +12965,7 @@
       </c>
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>669</v>
       </c>
@@ -12981,7 +12990,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>669</v>
       </c>
@@ -13016,7 +13025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>671</v>
       </c>
@@ -13041,7 +13050,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
         <v>671</v>
       </c>
@@ -13076,7 +13085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>673</v>
       </c>
@@ -13107,7 +13116,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
         <v>675</v>
       </c>
@@ -13132,7 +13141,7 @@
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>675</v>
       </c>
@@ -13167,7 +13176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
         <v>677</v>
       </c>
@@ -13192,7 +13201,7 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>677</v>
       </c>
@@ -13227,7 +13236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
         <v>679</v>
       </c>
@@ -13258,7 +13267,7 @@
       </c>
       <c r="K308" s="3"/>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>681</v>
       </c>
@@ -13283,7 +13292,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="3" t="s">
         <v>681</v>
       </c>
@@ -13318,7 +13327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>683</v>
       </c>
@@ -13343,7 +13352,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="3" t="s">
         <v>683</v>
       </c>
@@ -13378,7 +13387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>685</v>
       </c>
@@ -13409,7 +13418,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="3" t="s">
         <v>687</v>
       </c>
@@ -13434,7 +13443,7 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>687</v>
       </c>
@@ -13469,7 +13478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="3" t="s">
         <v>689</v>
       </c>
@@ -13494,7 +13503,7 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>689</v>
       </c>
@@ -13529,7 +13538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="3" t="s">
         <v>691</v>
       </c>
@@ -13564,7 +13573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>693</v>
       </c>
@@ -13597,7 +13606,7 @@
       </c>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="3" t="s">
         <v>696</v>
       </c>
@@ -13632,7 +13641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>699</v>
       </c>
@@ -13663,7 +13672,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="3" t="s">
         <v>701</v>
       </c>
@@ -13698,7 +13707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>703</v>
       </c>
@@ -13733,7 +13742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="3" t="s">
         <v>705</v>
       </c>
@@ -13768,7 +13777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>707</v>
       </c>
@@ -13801,7 +13810,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="3" t="s">
         <v>709</v>
       </c>
@@ -13836,7 +13845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>711</v>
       </c>
@@ -13871,7 +13880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="3" t="s">
         <v>713</v>
       </c>
@@ -13904,7 +13913,7 @@
       </c>
       <c r="K328" s="3"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>124</v>
       </c>
@@ -13929,7 +13938,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A330" s="3" t="s">
         <v>39</v>
       </c>
@@ -13960,7 +13969,7 @@
       </c>
       <c r="K330" s="3"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>23</v>
       </c>
@@ -13968,8 +13977,8 @@
         <v>12</v>
       </c>
       <c r="C331" s="1"/>
-      <c r="D331" s="1" t="s">
-        <v>14</v>
+      <c r="D331" s="1">
+        <v>2</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>21</v>
@@ -13989,7 +13998,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A332" s="3" t="s">
         <v>34</v>
       </c>
@@ -14022,7 +14031,7 @@
       </c>
       <c r="K332" s="3"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>37</v>
       </c>
@@ -14053,7 +14062,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A334" s="3" t="s">
         <v>53</v>
       </c>
@@ -14084,7 +14093,7 @@
       </c>
       <c r="K334" s="3"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>11</v>
       </c>
@@ -14119,7 +14128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A336" s="3" t="s">
         <v>20</v>
       </c>
@@ -14154,7 +14163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A337" s="3" t="s">
         <v>26</v>
       </c>
@@ -14189,7 +14198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>31</v>
       </c>
@@ -14224,7 +14233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>42</v>
       </c>
@@ -14259,7 +14268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A340" s="3" t="s">
         <v>47</v>
       </c>
@@ -14294,7 +14303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>715</v>
       </c>
@@ -14329,7 +14338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="3" t="s">
         <v>718</v>
       </c>
@@ -14364,7 +14373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>720</v>
       </c>
@@ -14397,7 +14406,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="3" t="s">
         <v>722</v>
       </c>
@@ -14432,7 +14441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>724</v>
       </c>
@@ -14467,7 +14476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="3" t="s">
         <v>726</v>
       </c>
@@ -14502,7 +14511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>729</v>
       </c>
@@ -14537,7 +14546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="3" t="s">
         <v>731</v>
       </c>
@@ -14572,7 +14581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>733</v>
       </c>
@@ -14607,7 +14616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="3" t="s">
         <v>735</v>
       </c>
@@ -14642,7 +14651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>737</v>
       </c>
@@ -14675,7 +14684,7 @@
       </c>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="3" t="s">
         <v>739</v>
       </c>
@@ -14710,7 +14719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>741</v>
       </c>
@@ -14745,7 +14754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="3" t="s">
         <v>743</v>
       </c>
@@ -14778,7 +14787,7 @@
       </c>
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>745</v>
       </c>
@@ -14813,7 +14822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="3" t="s">
         <v>748</v>
       </c>
@@ -14848,7 +14857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>750</v>
       </c>
@@ -14883,7 +14892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="3" t="s">
         <v>752</v>
       </c>
@@ -14918,7 +14927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>754</v>
       </c>
@@ -14951,7 +14960,7 @@
       </c>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="3" t="s">
         <v>756</v>
       </c>
@@ -14986,7 +14995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>758</v>
       </c>
@@ -15021,7 +15030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="3" t="s">
         <v>760</v>
       </c>
@@ -15056,7 +15065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>763</v>
       </c>
@@ -15087,7 +15096,7 @@
       </c>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="3" t="s">
         <v>766</v>
       </c>
@@ -15122,7 +15131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>768</v>
       </c>
@@ -15153,7 +15162,7 @@
       </c>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="3" t="s">
         <v>770</v>
       </c>
@@ -15188,7 +15197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>772</v>
       </c>
@@ -15219,7 +15228,7 @@
       </c>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="3" t="s">
         <v>774</v>
       </c>
@@ -15252,7 +15261,7 @@
       </c>
       <c r="K368" s="3"/>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>777</v>
       </c>
@@ -15285,7 +15294,7 @@
       </c>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="3" t="s">
         <v>779</v>
       </c>
@@ -15320,7 +15329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>781</v>
       </c>
@@ -15351,7 +15360,7 @@
       </c>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="3" t="s">
         <v>783</v>
       </c>
@@ -15386,7 +15395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>785</v>
       </c>
@@ -15421,7 +15430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="3" t="s">
         <v>787</v>
       </c>
@@ -15454,7 +15463,7 @@
       </c>
       <c r="K374" s="3"/>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>789</v>
       </c>
@@ -15489,7 +15498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="3" t="s">
         <v>791</v>
       </c>
@@ -15524,7 +15533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>793</v>
       </c>
@@ -15559,7 +15568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="3" t="s">
         <v>796</v>
       </c>
@@ -15594,7 +15603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>798</v>
       </c>
@@ -15629,7 +15638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="3" t="s">
         <v>800</v>
       </c>
@@ -15662,7 +15671,7 @@
       </c>
       <c r="K380" s="3"/>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>802</v>
       </c>
@@ -15697,7 +15706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="3" t="s">
         <v>804</v>
       </c>
@@ -15732,7 +15741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>806</v>
       </c>
@@ -15767,7 +15776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="3" t="s">
         <v>808</v>
       </c>
@@ -15798,7 +15807,7 @@
       </c>
       <c r="K384" s="3"/>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>810</v>
       </c>
@@ -15833,7 +15842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="3" t="s">
         <v>812</v>
       </c>
@@ -15864,7 +15873,7 @@
       </c>
       <c r="K386" s="3"/>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>814</v>
       </c>
@@ -15895,7 +15904,7 @@
       </c>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="3" t="s">
         <v>817</v>
       </c>
@@ -15928,7 +15937,7 @@
       </c>
       <c r="K388" s="3"/>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>819</v>
       </c>
@@ -15961,7 +15970,7 @@
       </c>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="3" t="s">
         <v>821</v>
       </c>
@@ -15996,7 +16005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>823</v>
       </c>
@@ -16031,7 +16040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="3" t="s">
         <v>825</v>
       </c>
@@ -16066,7 +16075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>827</v>
       </c>
@@ -16097,7 +16106,7 @@
       </c>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="3" t="s">
         <v>829</v>
       </c>
@@ -16132,7 +16141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>831</v>
       </c>
@@ -16167,7 +16176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="3" t="s">
         <v>833</v>
       </c>
@@ -16202,7 +16211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
         <v>835</v>
       </c>
@@ -16235,7 +16244,7 @@
       </c>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="3" t="s">
         <v>837</v>
       </c>
@@ -16270,7 +16279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>839</v>
       </c>
@@ -16305,7 +16314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="3" t="s">
         <v>841</v>
       </c>
@@ -16340,7 +16349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>843</v>
       </c>
@@ -16375,7 +16384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="3" t="s">
         <v>845</v>
       </c>
@@ -16408,7 +16417,7 @@
       </c>
       <c r="K402" s="3"/>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>847</v>
       </c>
@@ -16443,7 +16452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="3" t="s">
         <v>849</v>
       </c>
@@ -16478,7 +16487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
         <v>851</v>
       </c>
@@ -16513,7 +16522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="3" t="s">
         <v>853</v>
       </c>
@@ -16548,7 +16557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>855</v>
       </c>
@@ -16583,7 +16592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="3" t="s">
         <v>857</v>
       </c>
@@ -16618,7 +16627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
         <v>859</v>
       </c>
@@ -16653,7 +16662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="3" t="s">
         <v>861</v>
       </c>
@@ -16688,7 +16697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
         <v>863</v>
       </c>
@@ -16723,7 +16732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="3" t="s">
         <v>865</v>
       </c>
@@ -16758,7 +16767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>867</v>
       </c>
@@ -16793,7 +16802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="3" t="s">
         <v>869</v>
       </c>
@@ -16828,7 +16837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
         <v>871</v>
       </c>
@@ -16863,7 +16872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="3" t="s">
         <v>873</v>
       </c>
@@ -16898,7 +16907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
         <v>875</v>
       </c>
@@ -16931,7 +16940,7 @@
       </c>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="3" t="s">
         <v>877</v>
       </c>
@@ -16966,7 +16975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
         <v>879</v>
       </c>
@@ -17001,7 +17010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="3" t="s">
         <v>882</v>
       </c>
@@ -17036,7 +17045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
         <v>884</v>
       </c>
@@ -17071,7 +17080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" s="3" t="s">
         <v>886</v>
       </c>
@@ -17106,7 +17115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" s="1" t="s">
         <v>888</v>
       </c>
@@ -17141,7 +17150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" s="3" t="s">
         <v>890</v>
       </c>
@@ -17176,7 +17185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" s="1" t="s">
         <v>892</v>
       </c>
@@ -17211,7 +17220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="3" t="s">
         <v>894</v>
       </c>
@@ -17242,7 +17251,7 @@
       </c>
       <c r="K426" s="3"/>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" s="1" t="s">
         <v>896</v>
       </c>
@@ -17277,7 +17286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" s="3" t="s">
         <v>898</v>
       </c>
@@ -17308,7 +17317,7 @@
       </c>
       <c r="K428" s="3"/>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" s="1" t="s">
         <v>900</v>
       </c>
@@ -17343,7 +17352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" s="3" t="s">
         <v>902</v>
       </c>
@@ -17378,7 +17387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="1" t="s">
         <v>904</v>
       </c>
@@ -17413,7 +17422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="3" t="s">
         <v>906</v>
       </c>
@@ -17444,7 +17453,7 @@
       </c>
       <c r="K432" s="3"/>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="1" t="s">
         <v>908</v>
       </c>
@@ -17479,7 +17488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" s="3" t="s">
         <v>911</v>
       </c>
@@ -17514,7 +17523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" s="1" t="s">
         <v>913</v>
       </c>
@@ -17549,7 +17558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" s="3" t="s">
         <v>916</v>
       </c>
@@ -17584,7 +17593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" s="1" t="s">
         <v>918</v>
       </c>
@@ -17619,7 +17628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" s="3" t="s">
         <v>921</v>
       </c>
@@ -17654,7 +17663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" s="1" t="s">
         <v>923</v>
       </c>
@@ -17689,7 +17698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" s="3" t="s">
         <v>925</v>
       </c>
@@ -17722,7 +17731,7 @@
       </c>
       <c r="K440" s="3"/>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" s="1" t="s">
         <v>927</v>
       </c>
@@ -17757,7 +17766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="3" t="s">
         <v>929</v>
       </c>
@@ -17792,7 +17801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" s="1" t="s">
         <v>931</v>
       </c>
@@ -17827,7 +17836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="3" t="s">
         <v>933</v>
       </c>
@@ -17862,7 +17871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" s="1" t="s">
         <v>935</v>
       </c>
@@ -17897,7 +17906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" s="3" t="s">
         <v>937</v>
       </c>
@@ -17932,7 +17941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" s="1" t="s">
         <v>939</v>
       </c>
@@ -17967,7 +17976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" s="3" t="s">
         <v>941</v>
       </c>
@@ -18002,7 +18011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" s="1" t="s">
         <v>943</v>
       </c>
@@ -18037,7 +18046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="3" t="s">
         <v>945</v>
       </c>
@@ -18072,7 +18081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" s="1" t="s">
         <v>947</v>
       </c>
@@ -18103,7 +18112,7 @@
       </c>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" s="3" t="s">
         <v>949</v>
       </c>
@@ -18138,7 +18147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" s="1" t="s">
         <v>951</v>
       </c>
@@ -18173,7 +18182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" s="3" t="s">
         <v>953</v>
       </c>
@@ -18208,7 +18217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" s="1" t="s">
         <v>955</v>
       </c>
@@ -18243,7 +18252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" s="3" t="s">
         <v>957</v>
       </c>
@@ -18278,7 +18287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" s="1" t="s">
         <v>959</v>
       </c>
@@ -18313,7 +18322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" s="3" t="s">
         <v>961</v>
       </c>
@@ -18348,7 +18357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" s="1" t="s">
         <v>963</v>
       </c>
@@ -18383,7 +18392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" s="3" t="s">
         <v>965</v>
       </c>
@@ -18418,7 +18427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" s="1" t="s">
         <v>967</v>
       </c>
@@ -18453,7 +18462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" s="3" t="s">
         <v>969</v>
       </c>
@@ -18486,7 +18495,7 @@
       </c>
       <c r="K462" s="3"/>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" s="1" t="s">
         <v>971</v>
       </c>
@@ -18519,7 +18528,7 @@
       </c>
       <c r="K463" s="1"/>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" s="3" t="s">
         <v>973</v>
       </c>
@@ -18554,7 +18563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" s="1" t="s">
         <v>976</v>
       </c>
@@ -18589,7 +18598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" s="3" t="s">
         <v>978</v>
       </c>
@@ -18622,7 +18631,7 @@
       </c>
       <c r="K466" s="3"/>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" s="1" t="s">
         <v>980</v>
       </c>
@@ -18657,7 +18666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" s="3" t="s">
         <v>982</v>
       </c>
@@ -18692,7 +18701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" s="1" t="s">
         <v>984</v>
       </c>
@@ -18727,7 +18736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" s="3" t="s">
         <v>986</v>
       </c>
@@ -18762,7 +18771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" s="1" t="s">
         <v>988</v>
       </c>
@@ -18797,7 +18806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" s="3" t="s">
         <v>990</v>
       </c>
@@ -18832,7 +18841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" s="1" t="s">
         <v>992</v>
       </c>
@@ -18867,7 +18876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" s="3" t="s">
         <v>994</v>
       </c>
@@ -18902,7 +18911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" s="1" t="s">
         <v>996</v>
       </c>
@@ -18937,7 +18946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" s="3" t="s">
         <v>998</v>
       </c>
@@ -18968,7 +18977,7 @@
       </c>
       <c r="K476" s="3"/>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" s="1" t="s">
         <v>1000</v>
       </c>
@@ -18999,7 +19008,7 @@
       </c>
       <c r="K477" s="1"/>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" s="3" t="s">
         <v>1002</v>
       </c>
@@ -19034,7 +19043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" s="1" t="s">
         <v>1004</v>
       </c>
@@ -19069,7 +19078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" s="3" t="s">
         <v>1006</v>
       </c>
@@ -19104,7 +19113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" s="1" t="s">
         <v>1008</v>
       </c>
@@ -19139,7 +19148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" s="3" t="s">
         <v>1010</v>
       </c>
@@ -19174,7 +19183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" s="1" t="s">
         <v>1012</v>
       </c>
@@ -19209,7 +19218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" s="3" t="s">
         <v>1014</v>
       </c>
@@ -19242,7 +19251,7 @@
       </c>
       <c r="K484" s="3"/>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" s="1" t="s">
         <v>1016</v>
       </c>
@@ -19277,7 +19286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" s="3" t="s">
         <v>1018</v>
       </c>
@@ -19312,7 +19321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" s="1" t="s">
         <v>1020</v>
       </c>
@@ -19345,7 +19354,7 @@
       </c>
       <c r="K487" s="1"/>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" s="3" t="s">
         <v>1022</v>
       </c>
@@ -19380,7 +19389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" s="1" t="s">
         <v>1024</v>
       </c>
@@ -19413,7 +19422,7 @@
       </c>
       <c r="K489" s="1"/>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" s="3" t="s">
         <v>1026</v>
       </c>
@@ -19448,7 +19457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" s="1" t="s">
         <v>1028</v>
       </c>
@@ -19483,7 +19492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" s="3" t="s">
         <v>1030</v>
       </c>
@@ -19518,7 +19527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" s="1" t="s">
         <v>1032</v>
       </c>
@@ -19553,7 +19562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" s="3" t="s">
         <v>1034</v>
       </c>
@@ -19588,7 +19597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" s="1" t="s">
         <v>1036</v>
       </c>
@@ -19623,7 +19632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" s="3" t="s">
         <v>1038</v>
       </c>
@@ -19658,7 +19667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" s="1" t="s">
         <v>1040</v>
       </c>
@@ -19693,7 +19702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" s="3" t="s">
         <v>1042</v>
       </c>
@@ -19728,7 +19737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" s="1" t="s">
         <v>1044</v>
       </c>
@@ -19763,7 +19772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" s="3" t="s">
         <v>1046</v>
       </c>
@@ -19796,7 +19805,7 @@
       </c>
       <c r="K500" s="3"/>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" s="1" t="s">
         <v>1048</v>
       </c>
@@ -19831,7 +19840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502" s="3" t="s">
         <v>1051</v>
       </c>
@@ -19866,7 +19875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503" s="1" t="s">
         <v>1053</v>
       </c>
@@ -19901,7 +19910,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504" s="3" t="s">
         <v>1056</v>
       </c>
@@ -19932,7 +19941,7 @@
       </c>
       <c r="K504" s="3"/>
     </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505" s="1" t="s">
         <v>1058</v>
       </c>
@@ -19965,7 +19974,7 @@
       </c>
       <c r="K505" s="1"/>
     </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" s="3" t="s">
         <v>1060</v>
       </c>
@@ -20000,7 +20009,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" s="1" t="s">
         <v>1062</v>
       </c>
@@ -20031,7 +20040,7 @@
       </c>
       <c r="K507" s="1"/>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508" s="3" t="s">
         <v>1064</v>
       </c>
@@ -20062,7 +20071,7 @@
       </c>
       <c r="K508" s="3"/>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" s="1" t="s">
         <v>1066</v>
       </c>
@@ -20097,7 +20106,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" s="3" t="s">
         <v>1068</v>
       </c>
@@ -20128,7 +20137,7 @@
       </c>
       <c r="K510" s="3"/>
     </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" s="1" t="s">
         <v>1071</v>
       </c>
@@ -20163,7 +20172,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" s="3" t="s">
         <v>1074</v>
       </c>
@@ -20194,7 +20203,7 @@
       </c>
       <c r="K512" s="3"/>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" s="1" t="s">
         <v>1076</v>
       </c>
@@ -20229,7 +20238,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" s="3" t="s">
         <v>1078</v>
       </c>
@@ -20262,7 +20271,7 @@
       </c>
       <c r="K514" s="3"/>
     </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" s="1" t="s">
         <v>1080</v>
       </c>
@@ -20293,7 +20302,7 @@
       </c>
       <c r="K515" s="1"/>
     </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" s="3" t="s">
         <v>1082</v>
       </c>
@@ -20328,7 +20337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" s="1" t="s">
         <v>1084</v>
       </c>
@@ -20361,7 +20370,7 @@
       </c>
       <c r="K517" s="1"/>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" s="3" t="s">
         <v>1086</v>
       </c>
@@ -20396,7 +20405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" s="1" t="s">
         <v>1088</v>
       </c>
@@ -20431,7 +20440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" s="3" t="s">
         <v>1090</v>
       </c>
@@ -20466,7 +20475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521" s="1" t="s">
         <v>1093</v>
       </c>
@@ -20501,7 +20510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20536,7 +20545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523" s="1" t="s">
         <v>1097</v>
       </c>
@@ -20571,7 +20580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524" s="3" t="s">
         <v>1099</v>
       </c>
@@ -20606,7 +20615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525" s="1" t="s">
         <v>1101</v>
       </c>
@@ -20639,7 +20648,7 @@
       </c>
       <c r="K525" s="1"/>
     </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526" s="3" t="s">
         <v>1103</v>
       </c>
@@ -20674,7 +20683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527" s="1" t="s">
         <v>1105</v>
       </c>
@@ -20709,7 +20718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A528" s="3" t="s">
         <v>1107</v>
       </c>
@@ -20744,7 +20753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529" s="1" t="s">
         <v>1109</v>
       </c>
@@ -20779,7 +20788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A530" s="3" t="s">
         <v>1111</v>
       </c>
@@ -20814,7 +20823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" s="1" t="s">
         <v>1113</v>
       </c>
@@ -20849,7 +20858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A532" s="3" t="s">
         <v>1115</v>
       </c>
@@ -20884,7 +20893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A533" s="1" t="s">
         <v>1117</v>
       </c>
@@ -20919,7 +20928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A534" s="3" t="s">
         <v>1119</v>
       </c>
@@ -20954,7 +20963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535" s="1" t="s">
         <v>1121</v>
       </c>
@@ -20989,7 +20998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A536" s="3" t="s">
         <v>1123</v>
       </c>
@@ -21024,7 +21033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537" s="1" t="s">
         <v>1125</v>
       </c>
@@ -21059,7 +21068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A538" s="3" t="s">
         <v>1127</v>
       </c>
@@ -21094,7 +21103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A539" s="1" t="s">
         <v>1129</v>
       </c>
@@ -21127,7 +21136,7 @@
       </c>
       <c r="K539" s="1"/>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540" s="3" t="s">
         <v>1131</v>
       </c>
@@ -21162,7 +21171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A541" s="1" t="s">
         <v>1133</v>
       </c>
@@ -21197,7 +21206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A542" s="3" t="s">
         <v>1135</v>
       </c>
@@ -21230,7 +21239,7 @@
       </c>
       <c r="K542" s="3"/>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" s="1" t="s">
         <v>1137</v>
       </c>
@@ -21263,7 +21272,7 @@
       </c>
       <c r="K543" s="1"/>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A544" s="3" t="s">
         <v>1140</v>
       </c>
@@ -21298,7 +21307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545" s="1" t="s">
         <v>1142</v>
       </c>
@@ -21333,7 +21342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A546" s="3" t="s">
         <v>1144</v>
       </c>
@@ -21368,7 +21377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A547" s="1" t="s">
         <v>1146</v>
       </c>
@@ -21403,7 +21412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548" s="3" t="s">
         <v>1148</v>
       </c>
@@ -21438,7 +21447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A549" s="1" t="s">
         <v>1150</v>
       </c>
@@ -21473,7 +21482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A550" s="3" t="s">
         <v>1152</v>
       </c>
@@ -21508,7 +21517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551" s="1" t="s">
         <v>1154</v>
       </c>
@@ -21543,7 +21552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A552" s="3" t="s">
         <v>1156</v>
       </c>
@@ -21578,7 +21587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A553" s="1" t="s">
         <v>1158</v>
       </c>
@@ -21613,7 +21622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A554" s="3" t="s">
         <v>1160</v>
       </c>
@@ -21648,7 +21657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A555" s="1" t="s">
         <v>1162</v>
       </c>
@@ -21683,7 +21692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A556" s="3" t="s">
         <v>1164</v>
       </c>
@@ -21718,7 +21727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A557" s="1" t="s">
         <v>1166</v>
       </c>
@@ -21753,7 +21762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A558" s="3" t="s">
         <v>1168</v>
       </c>
@@ -21788,7 +21797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A559" s="1" t="s">
         <v>1170</v>
       </c>
@@ -21823,7 +21832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A560" s="3" t="s">
         <v>1172</v>
       </c>
@@ -21858,7 +21867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A561" s="1" t="s">
         <v>1174</v>
       </c>
@@ -21893,7 +21902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A562" s="3" t="s">
         <v>1176</v>
       </c>
@@ -21928,7 +21937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A563" s="1" t="s">
         <v>1178</v>
       </c>
@@ -21963,7 +21972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A564" s="3" t="s">
         <v>1180</v>
       </c>
@@ -21998,7 +22007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A565" s="1" t="s">
         <v>1182</v>
       </c>
@@ -22033,7 +22042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A566" s="3" t="s">
         <v>1184</v>
       </c>
@@ -22068,7 +22077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A567" s="1" t="s">
         <v>1186</v>
       </c>
@@ -22103,7 +22112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A568" s="3" t="s">
         <v>1188</v>
       </c>
@@ -22138,7 +22147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A569" s="1" t="s">
         <v>1190</v>
       </c>
@@ -22173,7 +22182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A570" s="3" t="s">
         <v>1192</v>
       </c>
@@ -22208,7 +22217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A571" s="1" t="s">
         <v>1194</v>
       </c>
@@ -22243,7 +22252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A572" s="3" t="s">
         <v>1196</v>
       </c>
@@ -22278,7 +22287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A573" s="1" t="s">
         <v>1198</v>
       </c>
@@ -22313,7 +22322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A574" s="3" t="s">
         <v>1200</v>
       </c>
@@ -22348,7 +22357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A575" s="1" t="s">
         <v>1202</v>
       </c>
@@ -22383,7 +22392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A576" s="3" t="s">
         <v>1204</v>
       </c>
@@ -22418,7 +22427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A577" s="1" t="s">
         <v>1206</v>
       </c>
@@ -22453,7 +22462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A578" s="3" t="s">
         <v>1208</v>
       </c>
@@ -22488,7 +22497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A579" s="1" t="s">
         <v>1210</v>
       </c>
@@ -22523,7 +22532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A580" s="3" t="s">
         <v>1212</v>
       </c>
@@ -22558,7 +22567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A581" s="1" t="s">
         <v>1214</v>
       </c>
@@ -22593,7 +22602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A582" s="3" t="s">
         <v>1216</v>
       </c>
@@ -22628,7 +22637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A583" s="1" t="s">
         <v>1218</v>
       </c>
@@ -22659,7 +22668,7 @@
       </c>
       <c r="K583" s="1"/>
     </row>
-    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A584" s="3" t="s">
         <v>1220</v>
       </c>
@@ -22692,7 +22701,7 @@
       </c>
       <c r="K584" s="3"/>
     </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A585" s="1" t="s">
         <v>1222</v>
       </c>
@@ -22723,7 +22732,7 @@
       </c>
       <c r="K585" s="1"/>
     </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A586" s="3" t="s">
         <v>1224</v>
       </c>
@@ -22754,7 +22763,7 @@
       </c>
       <c r="K586" s="3"/>
     </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A587" s="1" t="s">
         <v>1226</v>
       </c>
@@ -22785,7 +22794,7 @@
       </c>
       <c r="K587" s="1"/>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A588" s="3" t="s">
         <v>1228</v>
       </c>
@@ -22816,7 +22825,7 @@
       </c>
       <c r="K588" s="3"/>
     </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A589" s="1" t="s">
         <v>1230</v>
       </c>
@@ -22847,7 +22856,7 @@
       </c>
       <c r="K589" s="1"/>
     </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A590" s="3" t="s">
         <v>1232</v>
       </c>
@@ -22878,7 +22887,7 @@
       </c>
       <c r="K590" s="3"/>
     </row>
-    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A591" s="1" t="s">
         <v>1234</v>
       </c>
@@ -22909,7 +22918,7 @@
       </c>
       <c r="K591" s="1"/>
     </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A592" s="3" t="s">
         <v>1236</v>
       </c>
@@ -22940,7 +22949,7 @@
       </c>
       <c r="K592" s="3"/>
     </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A593" s="1" t="s">
         <v>1238</v>
       </c>
@@ -22963,7 +22972,7 @@
       <c r="J593" s="1"/>
       <c r="K593" s="1"/>
     </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A594" s="3" t="s">
         <v>1240</v>
       </c>
@@ -22992,7 +23001,7 @@
       </c>
       <c r="K594" s="3"/>
     </row>
-    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A595" s="1" t="s">
         <v>1242</v>
       </c>
@@ -23021,7 +23030,7 @@
       </c>
       <c r="K595" s="1"/>
     </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A596" s="3" t="s">
         <v>1244</v>
       </c>
@@ -23050,7 +23059,7 @@
       </c>
       <c r="K596" s="3"/>
     </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A597" s="1" t="s">
         <v>1246</v>
       </c>
@@ -23079,7 +23088,7 @@
       </c>
       <c r="K597" s="1"/>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A598" s="3" t="s">
         <v>1248</v>
       </c>
@@ -23108,7 +23117,7 @@
       </c>
       <c r="K598" s="3"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A599" s="1" t="s">
         <v>50</v>
       </c>
@@ -23143,7 +23152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A600" s="3" t="s">
         <v>1250</v>
       </c>
@@ -23172,7 +23181,7 @@
       </c>
       <c r="K600" s="3"/>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A601" s="1" t="s">
         <v>1252</v>
       </c>
@@ -23203,7 +23212,7 @@
       </c>
       <c r="K601" s="1"/>
     </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A602" s="3" t="s">
         <v>1254</v>
       </c>
@@ -23234,7 +23243,7 @@
       </c>
       <c r="K602" s="3"/>
     </row>
-    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A603" s="1" t="s">
         <v>1256</v>
       </c>
@@ -23259,7 +23268,7 @@
       <c r="J603" s="1"/>
       <c r="K603" s="1"/>
     </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A604" s="3" t="s">
         <v>1258</v>
       </c>
@@ -23288,7 +23297,7 @@
       </c>
       <c r="K604" s="3"/>
     </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A605" s="1" t="s">
         <v>1260</v>
       </c>
@@ -23323,7 +23332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A606" s="3" t="s">
         <v>1262</v>
       </c>
@@ -23358,7 +23367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A607" s="1" t="s">
         <v>1265</v>
       </c>
@@ -23393,7 +23402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A608" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23428,7 +23437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A609" s="1" t="s">
         <v>1269</v>
       </c>
@@ -23461,7 +23470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A610" s="3" t="s">
         <v>1271</v>
       </c>
@@ -23494,7 +23503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A611" s="1" t="s">
         <v>1273</v>
       </c>
@@ -23527,7 +23536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A612" s="3" t="s">
         <v>1275</v>
       </c>
@@ -23560,7 +23569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A613" s="1" t="s">
         <v>1277</v>
       </c>
@@ -23593,7 +23602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A614" s="3" t="s">
         <v>1279</v>
       </c>
@@ -23626,7 +23635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A615" s="1" t="s">
         <v>1281</v>
       </c>
@@ -23659,7 +23668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A616" s="3" t="s">
         <v>1283</v>
       </c>
@@ -23694,7 +23703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A617" s="1" t="s">
         <v>1285</v>
       </c>
@@ -23727,7 +23736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A618" s="3" t="s">
         <v>1287</v>
       </c>
@@ -23760,7 +23769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A619" s="1" t="s">
         <v>1289</v>
       </c>
@@ -23795,7 +23804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A620" s="3" t="s">
         <v>1291</v>
       </c>
@@ -23828,7 +23837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A621" s="1" t="s">
         <v>1293</v>
       </c>
@@ -23863,7 +23872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A622" s="3" t="s">
         <v>1295</v>
       </c>
@@ -23898,7 +23907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A623" s="1" t="s">
         <v>1297</v>
       </c>
@@ -23933,7 +23942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A624" s="3" t="s">
         <v>1300</v>
       </c>
@@ -23968,7 +23977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A625" s="1" t="s">
         <v>1302</v>
       </c>
@@ -23999,7 +24008,7 @@
       </c>
       <c r="K625" s="1"/>
     </row>
-    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A626" s="3" t="s">
         <v>1304</v>
       </c>
@@ -24032,7 +24041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A627" s="1" t="s">
         <v>1306</v>
       </c>
@@ -24065,7 +24074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A628" s="3" t="s">
         <v>1308</v>
       </c>
@@ -24094,7 +24103,7 @@
       </c>
       <c r="K628" s="3"/>
     </row>
-    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A629" s="1" t="s">
         <v>1310</v>
       </c>
@@ -24125,7 +24134,7 @@
       </c>
       <c r="K629" s="1"/>
     </row>
-    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A630" s="3" t="s">
         <v>1312</v>
       </c>
@@ -24154,7 +24163,7 @@
       </c>
       <c r="K630" s="3"/>
     </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A631" s="1" t="s">
         <v>1314</v>
       </c>
@@ -24183,7 +24192,7 @@
       </c>
       <c r="K631" s="1"/>
     </row>
-    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A632" s="3" t="s">
         <v>1316</v>
       </c>
@@ -24212,7 +24221,7 @@
       </c>
       <c r="K632" s="3"/>
     </row>
-    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A633" s="1" t="s">
         <v>1318</v>
       </c>
@@ -24247,7 +24256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A634" s="4" t="s">
         <v>1320</v>
       </c>
@@ -24271,6 +24280,9 @@
       <c r="I634" s="4"/>
       <c r="J634" s="4"/>
       <c r="K634" s="4"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D636" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K634" xr:uid="{8699A6A8-F28A-4758-B52D-F7B4CDBD35D9}">

--- a/Input/Machine_Table_per_tool_AI.xlsx
+++ b/Input/Machine_Table_per_tool_AI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.distefano\Desktop\Nastrini-e-Coriandoli\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.massoletti.REGROUP\Desktop\LAVORO\Leonardo\_Generiche\Tool Nastri Leonardo\Nastrini-e-Coriandoli\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18EB80-2BDB-4824-B1D9-832EBD1A2937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354B21EC-FD10-4358-9C80-A7D48A28553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-6720" windowWidth="29040" windowHeight="15720" xr2:uid="{01506C15-45BD-4F72-B9FA-F9690C252C55}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{01506C15-45BD-4F72-B9FA-F9690C252C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
@@ -4426,28 +4426,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8699A6A8-F28A-4758-B52D-F7B4CDBD35D9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D636" sqref="D636"/>
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
@@ -4507,7 +4506,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -4532,7 +4531,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>132</v>
       </c>
@@ -4557,7 +4556,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>134</v>
       </c>
@@ -4582,7 +4581,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>136</v>
       </c>
@@ -4607,7 +4606,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -4632,7 +4631,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
@@ -4682,7 +4681,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>144</v>
       </c>
@@ -4707,7 +4706,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
@@ -4732,7 +4731,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>148</v>
       </c>
@@ -4757,7 +4756,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>150</v>
       </c>
@@ -4782,7 +4781,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>152</v>
       </c>
@@ -4807,7 +4806,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>156</v>
       </c>
@@ -4857,7 +4856,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>158</v>
       </c>
@@ -4882,7 +4881,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>160</v>
       </c>
@@ -4907,7 +4906,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>162</v>
       </c>
@@ -4932,7 +4931,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>164</v>
       </c>
@@ -4957,7 +4956,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>166</v>
       </c>
@@ -4982,7 +4981,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>168</v>
       </c>
@@ -5007,7 +5006,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -5032,7 +5031,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>173</v>
       </c>
@@ -5057,7 +5056,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>176</v>
       </c>
@@ -5082,7 +5081,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
@@ -5107,7 +5106,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>182</v>
       </c>
@@ -5132,7 +5131,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>185</v>
       </c>
@@ -5157,7 +5156,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>188</v>
       </c>
@@ -5182,7 +5181,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>191</v>
       </c>
@@ -5207,7 +5206,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>194</v>
       </c>
@@ -5232,7 +5231,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>197</v>
       </c>
@@ -5257,7 +5256,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>200</v>
       </c>
@@ -5282,7 +5281,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>203</v>
       </c>
@@ -5307,7 +5306,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>206</v>
       </c>
@@ -5332,7 +5331,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>209</v>
       </c>
@@ -5357,7 +5356,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>212</v>
       </c>
@@ -5382,7 +5381,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -5407,7 +5406,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5440,7 +5439,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -5465,7 +5464,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -5490,7 +5489,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -5515,7 +5514,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
@@ -5540,7 +5539,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
@@ -5565,7 +5564,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
@@ -5590,7 +5589,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -5615,7 +5614,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -5640,7 +5639,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>85</v>
       </c>
@@ -5665,7 +5664,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -5690,7 +5689,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>91</v>
       </c>
@@ -5715,7 +5714,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -5740,7 +5739,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
@@ -5765,7 +5764,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -5790,7 +5789,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>103</v>
       </c>
@@ -5815,7 +5814,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -5840,7 +5839,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
@@ -5865,7 +5864,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -5890,7 +5889,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
@@ -5915,7 +5914,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
@@ -5940,7 +5939,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
@@ -5965,7 +5964,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>218</v>
       </c>
@@ -5990,7 +5989,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>221</v>
       </c>
@@ -6015,7 +6014,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>223</v>
       </c>
@@ -6040,7 +6039,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>225</v>
       </c>
@@ -6065,7 +6064,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>227</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>229</v>
       </c>
@@ -6115,7 +6114,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>231</v>
       </c>
@@ -6140,7 +6139,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>233</v>
       </c>
@@ -6165,7 +6164,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>235</v>
       </c>
@@ -6190,7 +6189,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>237</v>
       </c>
@@ -6215,7 +6214,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>239</v>
       </c>
@@ -6240,7 +6239,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>241</v>
       </c>
@@ -6265,7 +6264,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>243</v>
       </c>
@@ -6290,7 +6289,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>245</v>
       </c>
@@ -6315,7 +6314,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>247</v>
       </c>
@@ -6340,7 +6339,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>249</v>
       </c>
@@ -6365,7 +6364,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>251</v>
       </c>
@@ -6390,7 +6389,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>253</v>
       </c>
@@ -6415,7 +6414,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>255</v>
       </c>
@@ -6440,7 +6439,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>257</v>
       </c>
@@ -6465,7 +6464,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>259</v>
       </c>
@@ -6490,7 +6489,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>261</v>
       </c>
@@ -6515,7 +6514,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>263</v>
       </c>
@@ -6540,7 +6539,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>265</v>
       </c>
@@ -6565,7 +6564,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>267</v>
       </c>
@@ -6590,7 +6589,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>269</v>
       </c>
@@ -6615,7 +6614,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>271</v>
       </c>
@@ -6640,7 +6639,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>273</v>
       </c>
@@ -6665,7 +6664,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -6690,7 +6689,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>277</v>
       </c>
@@ -6715,7 +6714,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>279</v>
       </c>
@@ -6740,7 +6739,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>281</v>
       </c>
@@ -6765,7 +6764,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>283</v>
       </c>
@@ -6790,7 +6789,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>285</v>
       </c>
@@ -6815,7 +6814,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -6840,7 +6839,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
@@ -6865,7 +6864,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>292</v>
       </c>
@@ -6890,7 +6889,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
@@ -6915,7 +6914,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>298</v>
       </c>
@@ -6940,7 +6939,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
@@ -6965,7 +6964,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>304</v>
       </c>
@@ -6990,7 +6989,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>307</v>
       </c>
@@ -7015,7 +7014,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>310</v>
       </c>
@@ -7040,7 +7039,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>313</v>
       </c>
@@ -7065,7 +7064,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>316</v>
       </c>
@@ -7090,7 +7089,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>318</v>
       </c>
@@ -7115,7 +7114,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>320</v>
       </c>
@@ -7140,7 +7139,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>322</v>
       </c>
@@ -7165,7 +7164,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>324</v>
       </c>
@@ -7190,7 +7189,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>326</v>
       </c>
@@ -7215,7 +7214,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>328</v>
       </c>
@@ -7240,7 +7239,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>330</v>
       </c>
@@ -7265,7 +7264,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>332</v>
       </c>
@@ -7290,7 +7289,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>334</v>
       </c>
@@ -7315,7 +7314,7 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>336</v>
       </c>
@@ -7340,7 +7339,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>338</v>
       </c>
@@ -7365,7 +7364,7 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>340</v>
       </c>
@@ -7390,7 +7389,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>342</v>
       </c>
@@ -7415,7 +7414,7 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>344</v>
       </c>
@@ -7440,7 +7439,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>346</v>
       </c>
@@ -7465,7 +7464,7 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>348</v>
       </c>
@@ -7490,7 +7489,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>350</v>
       </c>
@@ -7515,7 +7514,7 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>352</v>
       </c>
@@ -7540,7 +7539,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>354</v>
       </c>
@@ -7565,7 +7564,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>356</v>
       </c>
@@ -7590,7 +7589,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>358</v>
       </c>
@@ -7615,7 +7614,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>360</v>
       </c>
@@ -7640,7 +7639,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>362</v>
       </c>
@@ -7665,7 +7664,7 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>364</v>
       </c>
@@ -7690,7 +7689,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>366</v>
       </c>
@@ -7715,7 +7714,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>368</v>
       </c>
@@ -7740,7 +7739,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>370</v>
       </c>
@@ -7765,7 +7764,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>373</v>
       </c>
@@ -7790,7 +7789,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>375</v>
       </c>
@@ -7815,7 +7814,7 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>377</v>
       </c>
@@ -7840,7 +7839,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>379</v>
       </c>
@@ -7865,7 +7864,7 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>381</v>
       </c>
@@ -7890,7 +7889,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>383</v>
       </c>
@@ -7915,7 +7914,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>385</v>
       </c>
@@ -7940,7 +7939,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>387</v>
       </c>
@@ -7965,7 +7964,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>389</v>
       </c>
@@ -7990,7 +7989,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>391</v>
       </c>
@@ -8015,7 +8014,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>393</v>
       </c>
@@ -8040,7 +8039,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>395</v>
       </c>
@@ -8065,7 +8064,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>397</v>
       </c>
@@ -8090,7 +8089,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>399</v>
       </c>
@@ -8115,7 +8114,7 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>401</v>
       </c>
@@ -8140,7 +8139,7 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>403</v>
       </c>
@@ -8165,7 +8164,7 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>405</v>
       </c>
@@ -8190,7 +8189,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>407</v>
       </c>
@@ -8215,7 +8214,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>409</v>
       </c>
@@ -8240,7 +8239,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>411</v>
       </c>
@@ -8265,7 +8264,7 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>413</v>
       </c>
@@ -8290,7 +8289,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>415</v>
       </c>
@@ -8315,7 +8314,7 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>417</v>
       </c>
@@ -8340,7 +8339,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>419</v>
       </c>
@@ -8365,7 +8364,7 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>421</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>425</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>427</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>429</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>431</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>433</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>435</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>437</v>
       </c>
@@ -8643,7 +8642,7 @@
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>439</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>441</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>443</v>
       </c>
@@ -8748,7 +8747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>445</v>
       </c>
@@ -8779,7 +8778,7 @@
       </c>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>447</v>
       </c>
@@ -8810,7 +8809,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>449</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>452</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>454</v>
       </c>
@@ -8915,7 +8914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>456</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>458</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>460</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>462</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>464</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>466</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>468</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>470</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>472</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>474</v>
       </c>
@@ -9261,7 +9260,7 @@
       </c>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>477</v>
       </c>
@@ -9286,7 +9285,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>477</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>480</v>
       </c>
@@ -9346,7 +9345,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>480</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>482</v>
       </c>
@@ -9412,7 +9411,7 @@
       </c>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>484</v>
       </c>
@@ -9437,7 +9436,7 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>484</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>486</v>
       </c>
@@ -9497,7 +9496,7 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>486</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>488</v>
       </c>
@@ -9563,7 +9562,7 @@
       </c>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>490</v>
       </c>
@@ -9588,7 +9587,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>490</v>
       </c>
@@ -9623,7 +9622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>492</v>
       </c>
@@ -9648,7 +9647,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>492</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>494</v>
       </c>
@@ -9714,7 +9713,7 @@
       </c>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>496</v>
       </c>
@@ -9739,7 +9738,7 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>496</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>499</v>
       </c>
@@ -9799,7 +9798,7 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>499</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>501</v>
       </c>
@@ -9865,7 +9864,7 @@
       </c>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>503</v>
       </c>
@@ -9890,7 +9889,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>503</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>505</v>
       </c>
@@ -9950,7 +9949,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>505</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>507</v>
       </c>
@@ -10016,7 +10015,7 @@
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>509</v>
       </c>
@@ -10041,7 +10040,7 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>509</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>511</v>
       </c>
@@ -10101,7 +10100,7 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>511</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>513</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>516</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>518</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>520</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>522</v>
       </c>
@@ -10311,7 +10310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>524</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>526</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>528</v>
       </c>
@@ -10414,7 +10413,7 @@
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>530</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>532</v>
       </c>
@@ -10484,7 +10483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>534</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>536</v>
       </c>
@@ -10550,7 +10549,7 @@
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>538</v>
       </c>
@@ -10581,7 +10580,7 @@
       </c>
       <c r="K224" s="3"/>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>540</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>543</v>
       </c>
@@ -10651,7 +10650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>545</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>548</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>550</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>552</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>554</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>558</v>
       </c>
@@ -10861,7 +10860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>560</v>
       </c>
@@ -10896,7 +10895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>562</v>
       </c>
@@ -10931,7 +10930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>565</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>567</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>570</v>
       </c>
@@ -11036,7 +11035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>572</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>574</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>578</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>581</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>584</v>
       </c>
@@ -11201,7 +11200,7 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>584</v>
       </c>
@@ -11236,7 +11235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>587</v>
       </c>
@@ -11267,7 +11266,7 @@
       </c>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>589</v>
       </c>
@@ -11292,7 +11291,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>589</v>
       </c>
@@ -11327,7 +11326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>591</v>
       </c>
@@ -11358,7 +11357,7 @@
       </c>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>593</v>
       </c>
@@ -11383,7 +11382,7 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>593</v>
       </c>
@@ -11418,7 +11417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>595</v>
       </c>
@@ -11443,7 +11442,7 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>595</v>
       </c>
@@ -11478,7 +11477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>597</v>
       </c>
@@ -11509,7 +11508,7 @@
       </c>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>599</v>
       </c>
@@ -11534,7 +11533,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>599</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>601</v>
       </c>
@@ -11594,7 +11593,7 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>601</v>
       </c>
@@ -11629,7 +11628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>603</v>
       </c>
@@ -11660,7 +11659,7 @@
       </c>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>605</v>
       </c>
@@ -11685,7 +11684,7 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>605</v>
       </c>
@@ -11720,7 +11719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>607</v>
       </c>
@@ -11745,7 +11744,7 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>607</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>609</v>
       </c>
@@ -11811,7 +11810,7 @@
       </c>
       <c r="K262" s="3"/>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>611</v>
       </c>
@@ -11836,7 +11835,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>611</v>
       </c>
@@ -11871,7 +11870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>613</v>
       </c>
@@ -11896,7 +11895,7 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>613</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>615</v>
       </c>
@@ -11962,7 +11961,7 @@
       </c>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>617</v>
       </c>
@@ -11987,7 +11986,7 @@
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>617</v>
       </c>
@@ -12022,7 +12021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>619</v>
       </c>
@@ -12047,7 +12046,7 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>619</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>621</v>
       </c>
@@ -12113,7 +12112,7 @@
       </c>
       <c r="K272" s="3"/>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>623</v>
       </c>
@@ -12138,7 +12137,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>623</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>625</v>
       </c>
@@ -12198,7 +12197,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>625</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>627</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>630</v>
       </c>
@@ -12303,7 +12302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>632</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>634</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>636</v>
       </c>
@@ -12408,7 +12407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>638</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>640</v>
       </c>
@@ -12476,7 +12475,7 @@
       </c>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>642</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>644</v>
       </c>
@@ -12546,7 +12545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>646</v>
       </c>
@@ -12581,7 +12580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>648</v>
       </c>
@@ -12612,7 +12611,7 @@
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>650</v>
       </c>
@@ -12643,7 +12642,7 @@
       </c>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>652</v>
       </c>
@@ -12678,7 +12677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>654</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>656</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>658</v>
       </c>
@@ -12783,7 +12782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>660</v>
       </c>
@@ -12814,7 +12813,7 @@
       </c>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>662</v>
       </c>
@@ -12839,7 +12838,7 @@
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>662</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>665</v>
       </c>
@@ -12899,7 +12898,7 @@
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>665</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>667</v>
       </c>
@@ -12965,7 +12964,7 @@
       </c>
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>669</v>
       </c>
@@ -12990,7 +12989,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>669</v>
       </c>
@@ -13025,7 +13024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>671</v>
       </c>
@@ -13050,7 +13049,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>671</v>
       </c>
@@ -13085,7 +13084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>673</v>
       </c>
@@ -13116,7 +13115,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>675</v>
       </c>
@@ -13141,7 +13140,7 @@
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>675</v>
       </c>
@@ -13176,7 +13175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>677</v>
       </c>
@@ -13201,7 +13200,7 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>677</v>
       </c>
@@ -13236,7 +13235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>679</v>
       </c>
@@ -13267,7 +13266,7 @@
       </c>
       <c r="K308" s="3"/>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>681</v>
       </c>
@@ -13292,7 +13291,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>681</v>
       </c>
@@ -13327,7 +13326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>683</v>
       </c>
@@ -13352,7 +13351,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>683</v>
       </c>
@@ -13387,7 +13386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>685</v>
       </c>
@@ -13418,7 +13417,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>687</v>
       </c>
@@ -13443,7 +13442,7 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>687</v>
       </c>
@@ -13478,7 +13477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>689</v>
       </c>
@@ -13503,7 +13502,7 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>689</v>
       </c>
@@ -13538,7 +13537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>691</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>693</v>
       </c>
@@ -13606,7 +13605,7 @@
       </c>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>696</v>
       </c>
@@ -13641,7 +13640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>699</v>
       </c>
@@ -13672,7 +13671,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>701</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>703</v>
       </c>
@@ -13742,7 +13741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>705</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>707</v>
       </c>
@@ -13810,7 +13809,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>709</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>711</v>
       </c>
@@ -13880,7 +13879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>713</v>
       </c>
@@ -13913,7 +13912,7 @@
       </c>
       <c r="K328" s="3"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>124</v>
       </c>
@@ -13938,7 +13937,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>39</v>
       </c>
@@ -13969,7 +13968,7 @@
       </c>
       <c r="K330" s="3"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>23</v>
       </c>
@@ -13998,7 +13997,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>34</v>
       </c>
@@ -14031,7 +14030,7 @@
       </c>
       <c r="K332" s="3"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>37</v>
       </c>
@@ -14062,7 +14061,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>53</v>
       </c>
@@ -14093,7 +14092,7 @@
       </c>
       <c r="K334" s="3"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>11</v>
       </c>
@@ -14128,7 +14127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>20</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>26</v>
       </c>
@@ -14198,7 +14197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>31</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>42</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>47</v>
       </c>
@@ -14303,7 +14302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>715</v>
       </c>
@@ -14338,7 +14337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>718</v>
       </c>
@@ -14373,7 +14372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>720</v>
       </c>
@@ -14406,7 +14405,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>722</v>
       </c>
@@ -14441,7 +14440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>724</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>726</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>729</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>731</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>733</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>735</v>
       </c>
@@ -14651,7 +14650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>737</v>
       </c>
@@ -14684,7 +14683,7 @@
       </c>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>739</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>741</v>
       </c>
@@ -14754,7 +14753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>743</v>
       </c>
@@ -14787,7 +14786,7 @@
       </c>
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>745</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>748</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>750</v>
       </c>
@@ -14892,7 +14891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>752</v>
       </c>
@@ -14927,7 +14926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>754</v>
       </c>
@@ -14960,7 +14959,7 @@
       </c>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>756</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>758</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>760</v>
       </c>
@@ -15065,7 +15064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>763</v>
       </c>
@@ -15096,7 +15095,7 @@
       </c>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>766</v>
       </c>
@@ -15131,7 +15130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>768</v>
       </c>
@@ -15162,7 +15161,7 @@
       </c>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>770</v>
       </c>
@@ -15197,7 +15196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>772</v>
       </c>
@@ -15228,7 +15227,7 @@
       </c>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>774</v>
       </c>
@@ -15261,7 +15260,7 @@
       </c>
       <c r="K368" s="3"/>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>777</v>
       </c>
@@ -15294,7 +15293,7 @@
       </c>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>779</v>
       </c>
@@ -15329,7 +15328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>781</v>
       </c>
@@ -15360,7 +15359,7 @@
       </c>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>783</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>785</v>
       </c>
@@ -15430,7 +15429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>787</v>
       </c>
@@ -15463,7 +15462,7 @@
       </c>
       <c r="K374" s="3"/>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>789</v>
       </c>
@@ -15498,7 +15497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>791</v>
       </c>
@@ -15533,7 +15532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>793</v>
       </c>
@@ -15568,7 +15567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>796</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>798</v>
       </c>
@@ -15638,7 +15637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>800</v>
       </c>
@@ -15671,7 +15670,7 @@
       </c>
       <c r="K380" s="3"/>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>802</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>804</v>
       </c>
@@ -15741,7 +15740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>806</v>
       </c>
@@ -15776,7 +15775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>808</v>
       </c>
@@ -15807,7 +15806,7 @@
       </c>
       <c r="K384" s="3"/>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>810</v>
       </c>
@@ -15842,7 +15841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>812</v>
       </c>
@@ -15873,7 +15872,7 @@
       </c>
       <c r="K386" s="3"/>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>814</v>
       </c>
@@ -15904,7 +15903,7 @@
       </c>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>817</v>
       </c>
@@ -15937,7 +15936,7 @@
       </c>
       <c r="K388" s="3"/>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>819</v>
       </c>
@@ -15970,7 +15969,7 @@
       </c>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>821</v>
       </c>
@@ -16005,7 +16004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>823</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>825</v>
       </c>
@@ -16075,7 +16074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>827</v>
       </c>
@@ -16106,7 +16105,7 @@
       </c>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>829</v>
       </c>
@@ -16141,7 +16140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>831</v>
       </c>
@@ -16176,7 +16175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>833</v>
       </c>
@@ -16211,7 +16210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>835</v>
       </c>
@@ -16244,7 +16243,7 @@
       </c>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>837</v>
       </c>
@@ -16279,7 +16278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>839</v>
       </c>
@@ -16314,7 +16313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>841</v>
       </c>
@@ -16349,7 +16348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>843</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>845</v>
       </c>
@@ -16417,7 +16416,7 @@
       </c>
       <c r="K402" s="3"/>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>847</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>849</v>
       </c>
@@ -16487,7 +16486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>851</v>
       </c>
@@ -16522,7 +16521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>853</v>
       </c>
@@ -16557,7 +16556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>855</v>
       </c>
@@ -16592,7 +16591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>857</v>
       </c>
@@ -16627,7 +16626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>859</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>861</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>863</v>
       </c>
@@ -16732,7 +16731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>865</v>
       </c>
@@ -16767,7 +16766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>867</v>
       </c>
@@ -16802,7 +16801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>869</v>
       </c>
@@ -16837,7 +16836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>871</v>
       </c>
@@ -16872,7 +16871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>873</v>
       </c>
@@ -16907,7 +16906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>875</v>
       </c>
@@ -16940,7 +16939,7 @@
       </c>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>877</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>879</v>
       </c>
@@ -17010,7 +17009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>882</v>
       </c>
@@ -17045,7 +17044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>884</v>
       </c>
@@ -17080,7 +17079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>886</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>888</v>
       </c>
@@ -17150,7 +17149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>890</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>892</v>
       </c>
@@ -17220,7 +17219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>894</v>
       </c>
@@ -17251,7 +17250,7 @@
       </c>
       <c r="K426" s="3"/>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>896</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>898</v>
       </c>
@@ -17317,7 +17316,7 @@
       </c>
       <c r="K428" s="3"/>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>900</v>
       </c>
@@ -17352,7 +17351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>902</v>
       </c>
@@ -17387,7 +17386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>904</v>
       </c>
@@ -17422,7 +17421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>906</v>
       </c>
@@ -17453,7 +17452,7 @@
       </c>
       <c r="K432" s="3"/>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>908</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>911</v>
       </c>
@@ -17523,7 +17522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>913</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>916</v>
       </c>
@@ -17593,12 +17592,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>918</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>919</v>
@@ -17628,7 +17627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>921</v>
       </c>
@@ -17663,7 +17662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>923</v>
       </c>
@@ -17698,7 +17697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>925</v>
       </c>
@@ -17731,7 +17730,7 @@
       </c>
       <c r="K440" s="3"/>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>927</v>
       </c>
@@ -17766,7 +17765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>929</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>931</v>
       </c>
@@ -17836,7 +17835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>933</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>935</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>937</v>
       </c>
@@ -17941,7 +17940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>939</v>
       </c>
@@ -17976,7 +17975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>941</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>943</v>
       </c>
@@ -18046,7 +18045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>945</v>
       </c>
@@ -18081,7 +18080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>947</v>
       </c>
@@ -18112,7 +18111,7 @@
       </c>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>949</v>
       </c>
@@ -18147,7 +18146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>951</v>
       </c>
@@ -18182,7 +18181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>953</v>
       </c>
@@ -18217,7 +18216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>955</v>
       </c>
@@ -18252,7 +18251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>957</v>
       </c>
@@ -18287,7 +18286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>959</v>
       </c>
@@ -18322,7 +18321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>961</v>
       </c>
@@ -18357,7 +18356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>963</v>
       </c>
@@ -18392,7 +18391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>965</v>
       </c>
@@ -18427,7 +18426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>967</v>
       </c>
@@ -18462,7 +18461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>969</v>
       </c>
@@ -18495,7 +18494,7 @@
       </c>
       <c r="K462" s="3"/>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>971</v>
       </c>
@@ -18528,7 +18527,7 @@
       </c>
       <c r="K463" s="1"/>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>973</v>
       </c>
@@ -18563,7 +18562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>976</v>
       </c>
@@ -18598,7 +18597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>978</v>
       </c>
@@ -18631,7 +18630,7 @@
       </c>
       <c r="K466" s="3"/>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>980</v>
       </c>
@@ -18666,7 +18665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>982</v>
       </c>
@@ -18701,7 +18700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>984</v>
       </c>
@@ -18736,7 +18735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>986</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>988</v>
       </c>
@@ -18806,7 +18805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>990</v>
       </c>
@@ -18841,7 +18840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>992</v>
       </c>
@@ -18876,7 +18875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>994</v>
       </c>
@@ -18911,7 +18910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>996</v>
       </c>
@@ -18946,7 +18945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>998</v>
       </c>
@@ -18977,7 +18976,7 @@
       </c>
       <c r="K476" s="3"/>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>1000</v>
       </c>
@@ -19008,7 +19007,7 @@
       </c>
       <c r="K477" s="1"/>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>1002</v>
       </c>
@@ -19043,7 +19042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1004</v>
       </c>
@@ -19078,7 +19077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>1006</v>
       </c>
@@ -19113,7 +19112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>1008</v>
       </c>
@@ -19148,7 +19147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>1010</v>
       </c>
@@ -19183,7 +19182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1012</v>
       </c>
@@ -19218,7 +19217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>1014</v>
       </c>
@@ -19251,7 +19250,7 @@
       </c>
       <c r="K484" s="3"/>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1016</v>
       </c>
@@ -19286,7 +19285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>1018</v>
       </c>
@@ -19321,7 +19320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1020</v>
       </c>
@@ -19354,7 +19353,7 @@
       </c>
       <c r="K487" s="1"/>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>1022</v>
       </c>
@@ -19389,7 +19388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1024</v>
       </c>
@@ -19422,7 +19421,7 @@
       </c>
       <c r="K489" s="1"/>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>1026</v>
       </c>
@@ -19457,7 +19456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1028</v>
       </c>
@@ -19492,12 +19491,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>1030</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>919</v>
@@ -19527,12 +19526,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>919</v>
@@ -19562,12 +19561,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>919</v>
@@ -19597,7 +19596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1036</v>
       </c>
@@ -19632,7 +19631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>1038</v>
       </c>
@@ -19667,7 +19666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1040</v>
       </c>
@@ -19702,7 +19701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>1042</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1044</v>
       </c>
@@ -19772,7 +19771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>1046</v>
       </c>
@@ -19805,7 +19804,7 @@
       </c>
       <c r="K500" s="3"/>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1048</v>
       </c>
@@ -19840,7 +19839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>1051</v>
       </c>
@@ -19875,7 +19874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1053</v>
       </c>
@@ -19910,7 +19909,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>1056</v>
       </c>
@@ -19941,7 +19940,7 @@
       </c>
       <c r="K504" s="3"/>
     </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1058</v>
       </c>
@@ -19974,7 +19973,7 @@
       </c>
       <c r="K505" s="1"/>
     </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>1060</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1062</v>
       </c>
@@ -20040,7 +20039,7 @@
       </c>
       <c r="K507" s="1"/>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>1064</v>
       </c>
@@ -20071,7 +20070,7 @@
       </c>
       <c r="K508" s="3"/>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1066</v>
       </c>
@@ -20106,7 +20105,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>1068</v>
       </c>
@@ -20137,7 +20136,7 @@
       </c>
       <c r="K510" s="3"/>
     </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1071</v>
       </c>
@@ -20172,7 +20171,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>1074</v>
       </c>
@@ -20203,7 +20202,7 @@
       </c>
       <c r="K512" s="3"/>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1076</v>
       </c>
@@ -20238,7 +20237,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>1078</v>
       </c>
@@ -20271,7 +20270,7 @@
       </c>
       <c r="K514" s="3"/>
     </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1080</v>
       </c>
@@ -20302,7 +20301,7 @@
       </c>
       <c r="K515" s="1"/>
     </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>1082</v>
       </c>
@@ -20337,7 +20336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1084</v>
       </c>
@@ -20370,7 +20369,7 @@
       </c>
       <c r="K517" s="1"/>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>1086</v>
       </c>
@@ -20405,7 +20404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1088</v>
       </c>
@@ -20440,7 +20439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>1090</v>
       </c>
@@ -20475,7 +20474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1093</v>
       </c>
@@ -20510,7 +20509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20545,7 +20544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1097</v>
       </c>
@@ -20580,7 +20579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>1099</v>
       </c>
@@ -20615,7 +20614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1101</v>
       </c>
@@ -20648,7 +20647,7 @@
       </c>
       <c r="K525" s="1"/>
     </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>1103</v>
       </c>
@@ -20683,7 +20682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1105</v>
       </c>
@@ -20718,7 +20717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>1107</v>
       </c>
@@ -20753,7 +20752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1109</v>
       </c>
@@ -20788,7 +20787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>1111</v>
       </c>
@@ -20823,7 +20822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1113</v>
       </c>
@@ -20858,7 +20857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>1115</v>
       </c>
@@ -20893,7 +20892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1117</v>
       </c>
@@ -20928,7 +20927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>1119</v>
       </c>
@@ -20963,7 +20962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1121</v>
       </c>
@@ -20998,7 +20997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>1123</v>
       </c>
@@ -21033,7 +21032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1125</v>
       </c>
@@ -21068,7 +21067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>1127</v>
       </c>
@@ -21103,7 +21102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1129</v>
       </c>
@@ -21136,7 +21135,7 @@
       </c>
       <c r="K539" s="1"/>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>1131</v>
       </c>
@@ -21171,7 +21170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1133</v>
       </c>
@@ -21206,7 +21205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>1135</v>
       </c>
@@ -21239,7 +21238,7 @@
       </c>
       <c r="K542" s="3"/>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1137</v>
       </c>
@@ -21272,7 +21271,7 @@
       </c>
       <c r="K543" s="1"/>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>1140</v>
       </c>
@@ -21307,7 +21306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1142</v>
       </c>
@@ -21342,7 +21341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>1144</v>
       </c>
@@ -21377,7 +21376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1146</v>
       </c>
@@ -21412,7 +21411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>1148</v>
       </c>
@@ -21447,7 +21446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1150</v>
       </c>
@@ -21482,7 +21481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>1152</v>
       </c>
@@ -21517,7 +21516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>1154</v>
       </c>
@@ -21552,7 +21551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>1156</v>
       </c>
@@ -21587,7 +21586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1158</v>
       </c>
@@ -21622,7 +21621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>1160</v>
       </c>
@@ -21657,7 +21656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1162</v>
       </c>
@@ -21692,7 +21691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>1164</v>
       </c>
@@ -21727,7 +21726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1166</v>
       </c>
@@ -21762,7 +21761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>1168</v>
       </c>
@@ -21797,7 +21796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>1170</v>
       </c>
@@ -21832,7 +21831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>1172</v>
       </c>
@@ -21867,7 +21866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>1174</v>
       </c>
@@ -21902,7 +21901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>1176</v>
       </c>
@@ -21937,7 +21936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>1178</v>
       </c>
@@ -21972,7 +21971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>1180</v>
       </c>
@@ -22007,7 +22006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>1182</v>
       </c>
@@ -22042,7 +22041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>1184</v>
       </c>
@@ -22077,7 +22076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>1186</v>
       </c>
@@ -22112,7 +22111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>1188</v>
       </c>
@@ -22147,7 +22146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>1190</v>
       </c>
@@ -22182,7 +22181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>1192</v>
       </c>
@@ -22217,7 +22216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1194</v>
       </c>
@@ -22252,7 +22251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>1196</v>
       </c>
@@ -22287,7 +22286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1198</v>
       </c>
@@ -22322,7 +22321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>1200</v>
       </c>
@@ -22357,7 +22356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1202</v>
       </c>
@@ -22392,7 +22391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>1204</v>
       </c>
@@ -22427,7 +22426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1206</v>
       </c>
@@ -22462,7 +22461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>1208</v>
       </c>
@@ -22497,7 +22496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1210</v>
       </c>
@@ -22532,7 +22531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>1212</v>
       </c>
@@ -22567,7 +22566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1214</v>
       </c>
@@ -22602,7 +22601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>1216</v>
       </c>
@@ -22637,7 +22636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1218</v>
       </c>
@@ -22668,7 +22667,7 @@
       </c>
       <c r="K583" s="1"/>
     </row>
-    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>1220</v>
       </c>
@@ -22701,7 +22700,7 @@
       </c>
       <c r="K584" s="3"/>
     </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>1222</v>
       </c>
@@ -22732,7 +22731,7 @@
       </c>
       <c r="K585" s="1"/>
     </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>1224</v>
       </c>
@@ -22763,7 +22762,7 @@
       </c>
       <c r="K586" s="3"/>
     </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>1226</v>
       </c>
@@ -22794,7 +22793,7 @@
       </c>
       <c r="K587" s="1"/>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>1228</v>
       </c>
@@ -22825,7 +22824,7 @@
       </c>
       <c r="K588" s="3"/>
     </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1230</v>
       </c>
@@ -22856,7 +22855,7 @@
       </c>
       <c r="K589" s="1"/>
     </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>1232</v>
       </c>
@@ -22887,7 +22886,7 @@
       </c>
       <c r="K590" s="3"/>
     </row>
-    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>1234</v>
       </c>
@@ -22918,7 +22917,7 @@
       </c>
       <c r="K591" s="1"/>
     </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>1236</v>
       </c>
@@ -22949,7 +22948,7 @@
       </c>
       <c r="K592" s="3"/>
     </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>1238</v>
       </c>
@@ -22972,7 +22971,7 @@
       <c r="J593" s="1"/>
       <c r="K593" s="1"/>
     </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>1240</v>
       </c>
@@ -23001,7 +23000,7 @@
       </c>
       <c r="K594" s="3"/>
     </row>
-    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1242</v>
       </c>
@@ -23030,7 +23029,7 @@
       </c>
       <c r="K595" s="1"/>
     </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>1244</v>
       </c>
@@ -23059,7 +23058,7 @@
       </c>
       <c r="K596" s="3"/>
     </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1246</v>
       </c>
@@ -23088,7 +23087,7 @@
       </c>
       <c r="K597" s="1"/>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>1248</v>
       </c>
@@ -23117,7 +23116,7 @@
       </c>
       <c r="K598" s="3"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>50</v>
       </c>
@@ -23152,7 +23151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>1250</v>
       </c>
@@ -23181,7 +23180,7 @@
       </c>
       <c r="K600" s="3"/>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1252</v>
       </c>
@@ -23212,7 +23211,7 @@
       </c>
       <c r="K601" s="1"/>
     </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>1254</v>
       </c>
@@ -23243,7 +23242,7 @@
       </c>
       <c r="K602" s="3"/>
     </row>
-    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>1256</v>
       </c>
@@ -23268,7 +23267,7 @@
       <c r="J603" s="1"/>
       <c r="K603" s="1"/>
     </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>1258</v>
       </c>
@@ -23297,12 +23296,12 @@
       </c>
       <c r="K604" s="3"/>
     </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>475</v>
@@ -23332,7 +23331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>1262</v>
       </c>
@@ -23367,7 +23366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1265</v>
       </c>
@@ -23402,7 +23401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23437,7 +23436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1269</v>
       </c>
@@ -23470,7 +23469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>1271</v>
       </c>
@@ -23503,7 +23502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>1273</v>
       </c>
@@ -23536,7 +23535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>1275</v>
       </c>
@@ -23569,7 +23568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>1277</v>
       </c>
@@ -23602,7 +23601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>1279</v>
       </c>
@@ -23635,7 +23634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1281</v>
       </c>
@@ -23668,7 +23667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>1283</v>
       </c>
@@ -23703,7 +23702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>1285</v>
       </c>
@@ -23736,7 +23735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>1287</v>
       </c>
@@ -23769,12 +23768,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>475</v>
@@ -23804,7 +23803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>1291</v>
       </c>
@@ -23837,12 +23836,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>919</v>
@@ -23872,7 +23871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>1295</v>
       </c>
@@ -23907,7 +23906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1297</v>
       </c>
@@ -23942,7 +23941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>1300</v>
       </c>
@@ -23977,7 +23976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1302</v>
       </c>
@@ -24008,7 +24007,7 @@
       </c>
       <c r="K625" s="1"/>
     </row>
-    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>1304</v>
       </c>
@@ -24041,7 +24040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1306</v>
       </c>
@@ -24074,7 +24073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>1308</v>
       </c>
@@ -24103,7 +24102,7 @@
       </c>
       <c r="K628" s="3"/>
     </row>
-    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>1310</v>
       </c>
@@ -24134,7 +24133,7 @@
       </c>
       <c r="K629" s="1"/>
     </row>
-    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>1312</v>
       </c>
@@ -24163,7 +24162,7 @@
       </c>
       <c r="K630" s="3"/>
     </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>1314</v>
       </c>
@@ -24192,7 +24191,7 @@
       </c>
       <c r="K631" s="1"/>
     </row>
-    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>1316</v>
       </c>
@@ -24221,7 +24220,7 @@
       </c>
       <c r="K632" s="3"/>
     </row>
-    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>1318</v>
       </c>
@@ -24256,7 +24255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
         <v>1320</v>
       </c>
@@ -24281,16 +24280,11 @@
       <c r="J634" s="4"/>
       <c r="K634" s="4"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D636" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K634" xr:uid="{8699A6A8-F28A-4758-B52D-F7B4CDBD35D9}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="API008"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:K599">
       <sortCondition ref="F1:F634"/>
     </sortState>
